--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:11:06+00:00</t>
+    <t>2022-09-30T12:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -728,6 +728,10 @@
   </si>
   <si>
     <t>Practitioner.qualification.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3418,13 +3422,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3475,7 +3479,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3493,7 +3497,7 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3507,7 +3511,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3536,7 +3540,7 @@
         <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>135</v>
@@ -3589,7 +3593,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3607,7 +3611,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3621,11 +3625,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3647,10 +3651,10 @@
         <v>132</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -3705,7 +3709,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3763,14 +3767,14 @@
         <v>144</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3819,7 +3823,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3837,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3851,7 +3855,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3874,13 +3878,13 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3907,13 +3911,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3931,7 +3935,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>85</v>
@@ -3952,7 +3956,7 @@
         <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -3963,7 +3967,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3986,17 +3990,17 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4045,7 +4049,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4063,10 +4067,10 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4077,7 +4081,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4100,13 +4104,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4157,7 +4161,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4175,7 +4179,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4189,7 +4193,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4212,19 +4216,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4273,7 +4277,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4288,13 +4292,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1433,27 +1429,27 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1461,31 +1457,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1535,13 +1531,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1562,12 +1558,12 @@
         <v>74</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1578,25 +1574,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1647,19 +1643,19 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1679,7 +1675,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1690,28 +1686,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1761,19 +1757,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1793,7 +1789,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1804,7 +1800,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1816,16 +1812,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1851,43 +1847,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -1907,18 +1903,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1930,16 +1926,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1989,25 +1985,25 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2021,11 +2017,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2044,16 +2040,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2103,7 +2099,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2121,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2135,11 +2131,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2158,16 +2154,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2217,7 +2213,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2229,13 +2225,13 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2249,11 +2245,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2266,25 +2262,25 @@
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2333,7 +2329,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2345,13 +2341,13 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2365,7 +2361,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2373,32 +2369,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2447,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2459,27 +2455,27 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2487,41 +2483,41 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="Q12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2565,39 +2561,39 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2605,7 +2601,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>76</v>
@@ -2617,22 +2613,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -2681,7 +2677,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2693,27 +2689,27 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2724,31 +2720,31 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2797,7 +2793,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2809,27 +2805,27 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2837,7 +2833,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>76</v>
@@ -2849,22 +2845,22 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2913,7 +2909,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2925,27 +2921,27 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2953,32 +2949,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3003,14 +2999,14 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
       </c>
@@ -3027,39 +3023,39 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3067,32 +3063,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3141,39 +3137,39 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3196,17 +3192,17 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3255,7 +3251,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3267,16 +3263,16 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3287,7 +3283,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3310,13 +3306,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3367,7 +3363,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3379,16 +3375,16 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3399,7 +3395,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3410,7 +3406,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3422,13 +3418,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3479,13 +3475,13 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3497,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3511,11 +3507,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3534,16 +3530,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3593,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3605,13 +3601,13 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3625,11 +3621,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3642,25 +3638,25 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3709,7 +3705,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3721,13 +3717,13 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3741,7 +3737,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3764,17 +3760,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3823,7 +3819,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3835,13 +3831,13 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3855,7 +3851,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3863,10 +3859,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3878,13 +3874,13 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3911,52 +3907,52 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -3967,7 +3963,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3978,7 +3974,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3990,17 +3986,17 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4049,28 +4045,28 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4081,7 +4077,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4092,7 +4088,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -4104,13 +4100,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4161,25 +4157,25 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4193,7 +4189,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4216,19 +4212,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4253,14 +4249,14 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4277,7 +4273,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4289,16 +4285,16 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T01:19:25+00:00</t>
+    <t>2022-12-30T12:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1162,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1172,45 +1175,45 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="31.08984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="55.421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="55.421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.4609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1334,105 +1337,108 @@
       <c r="AN1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>80</v>
@@ -1441,35 +1447,38 @@
         <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
         <v>84</v>
       </c>
+      <c r="B3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>86</v>
@@ -1483,110 +1492,113 @@
       <c r="M3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>94</v>
@@ -1594,111 +1606,114 @@
       <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -1709,110 +1724,113 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>106</v>
@@ -1823,31 +1841,31 @@
       <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>110</v>
@@ -1856,77 +1874,80 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -1937,110 +1958,113 @@
       <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>124</v>
@@ -2051,110 +2075,113 @@
       <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>132</v>
@@ -2165,226 +2192,232 @@
       <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>144</v>
@@ -2392,73 +2425,73 @@
       <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>148</v>
@@ -2472,33 +2505,36 @@
       <c r="AN11" t="s" s="2">
         <v>151</v>
       </c>
+      <c r="AO11" t="s" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>154</v>
@@ -2513,110 +2549,113 @@
         <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="AO12" t="s" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>164</v>
@@ -2631,68 +2670,68 @@
         <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>169</v>
@@ -2701,38 +2740,41 @@
         <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>174</v>
@@ -2747,68 +2789,68 @@
         <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>179</v>
@@ -2817,38 +2859,41 @@
         <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>184</v>
@@ -2863,68 +2908,68 @@
         <v>187</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>189</v>
@@ -2933,73 +2978,76 @@
         <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>195</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>197</v>
@@ -3008,37 +3056,37 @@
         <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>200</v>
@@ -3047,38 +3095,41 @@
         <v>201</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>205</v>
@@ -3086,73 +3137,73 @@
       <c r="L17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>207</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>209</v>
@@ -3161,38 +3212,41 @@
         <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>214</v>
@@ -3200,113 +3254,116 @@
       <c r="L18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>216</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>221</v>
@@ -3314,71 +3371,71 @@
       <c r="L19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>224</v>
@@ -3387,38 +3444,41 @@
         <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>228</v>
@@ -3426,455 +3486,467 @@
       <c r="L20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>243</v>
       </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>247</v>
@@ -3882,32 +3954,32 @@
       <c r="L24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>250</v>
@@ -3916,77 +3988,80 @@
         <v>251</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>255</v>
@@ -3994,113 +4069,116 @@
       <c r="L25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>257</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>262</v>
@@ -4108,114 +4186,117 @@
       <c r="L26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>267</v>
@@ -4227,29 +4308,29 @@
         <v>269</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>110</v>
@@ -4258,37 +4339,37 @@
         <v>111</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>271</v>
@@ -4297,10 +4378,13 @@
         <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
@@ -1369,13 +1373,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1441,27 +1445,27 @@
         <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1469,10 +1473,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1481,19 +1485,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1543,13 +1547,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1570,15 +1574,15 @@
         <v>75</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1589,7 +1593,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -1598,16 +1602,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1658,19 +1662,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1690,10 +1694,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1704,28 +1708,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1775,19 +1779,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1807,10 +1811,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1821,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1833,16 +1837,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1868,13 +1872,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -1892,19 +1896,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -1924,21 +1928,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1950,16 +1954,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2009,25 +2013,25 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2041,14 +2045,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2067,16 +2071,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2126,7 +2130,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2144,7 +2148,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2158,14 +2162,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2184,16 +2188,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2243,7 +2247,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2255,13 +2259,13 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2275,14 +2279,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2295,25 +2299,25 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2362,7 +2366,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2374,13 +2378,13 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2394,10 +2398,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2405,10 +2409,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2417,20 +2421,20 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2479,7 +2483,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2491,30 +2495,30 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2522,10 +2526,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2534,108 +2538,108 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2643,7 +2647,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2655,22 +2659,22 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2719,7 +2723,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2731,30 +2735,30 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2765,7 +2769,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2774,22 +2778,22 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2838,7 +2842,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2850,30 +2854,30 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2881,7 +2885,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -2893,22 +2897,22 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2957,7 +2961,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2969,30 +2973,30 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3000,10 +3004,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3012,20 +3016,20 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3050,13 +3054,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3074,42 +3078,42 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3117,10 +3121,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3129,20 +3133,20 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3191,42 +3195,42 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3249,17 +3253,17 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3308,7 +3312,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3320,16 +3324,16 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>75</v>
@@ -3340,10 +3344,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3366,13 +3370,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3423,7 +3427,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3435,16 +3439,16 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -3455,10 +3459,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3469,7 +3473,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3481,13 +3485,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3538,13 +3542,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -3556,7 +3560,7 @@
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3570,14 +3574,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3596,16 +3600,16 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3655,7 +3659,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3667,13 +3671,13 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -3687,14 +3691,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3707,25 +3711,25 @@
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3774,7 +3778,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3786,13 +3790,13 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -3806,10 +3810,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3832,17 +3836,17 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3891,7 +3895,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3903,13 +3907,13 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -3923,10 +3927,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3934,10 +3938,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3949,13 +3953,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3982,13 +3986,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4006,28 +4010,28 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4038,10 +4042,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4052,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4064,17 +4068,17 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4123,28 +4127,28 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4155,10 +4159,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4169,7 +4173,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4181,13 +4185,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4238,25 +4242,25 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4270,10 +4274,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4296,19 +4300,19 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4333,13 +4337,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4357,7 +4361,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4369,16 +4373,16 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-practitioner</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -996,10 +1000,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1442,30 +1446,30 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1473,10 +1477,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1485,19 +1489,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1547,13 +1551,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1574,15 +1578,15 @@
         <v>75</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1593,7 +1597,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -1602,16 +1606,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1662,19 +1666,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1694,10 +1698,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1708,28 +1712,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1779,19 +1783,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1811,10 +1815,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1825,7 +1829,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1837,16 +1841,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1872,13 +1876,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -1896,19 +1900,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -1928,21 +1932,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1954,16 +1958,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2013,25 +2017,25 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2045,14 +2049,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2071,16 +2075,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2130,7 +2134,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2148,7 +2152,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2162,14 +2166,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2188,16 +2192,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2247,7 +2251,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2259,13 +2263,13 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2279,14 +2283,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2299,25 +2303,25 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2366,7 +2370,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2378,13 +2382,13 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2398,10 +2402,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2409,10 +2413,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -2421,20 +2425,20 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2483,7 +2487,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2495,30 +2499,30 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2526,10 +2530,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2538,108 +2542,108 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2647,7 +2651,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2659,22 +2663,22 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2723,7 +2727,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2735,30 +2739,30 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2769,7 +2773,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2778,22 +2782,22 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2842,7 +2846,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2854,30 +2858,30 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2885,7 +2889,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -2897,22 +2901,22 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2961,7 +2965,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2973,30 +2977,30 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3004,10 +3008,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3016,20 +3020,20 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3054,13 +3058,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3078,42 +3082,42 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3121,10 +3125,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3133,20 +3137,20 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3195,42 +3199,42 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3253,17 +3257,17 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3312,7 +3316,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3324,16 +3328,16 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>75</v>
@@ -3344,10 +3348,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3370,13 +3374,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3427,7 +3431,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3439,16 +3443,16 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -3459,10 +3463,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3473,7 +3477,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3485,13 +3489,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3542,13 +3546,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -3560,7 +3564,7 @@
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3574,14 +3578,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3600,16 +3604,16 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3659,7 +3663,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3671,13 +3675,13 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -3691,14 +3695,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3711,25 +3715,25 @@
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3778,7 +3782,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3790,13 +3794,13 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -3810,10 +3814,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3836,17 +3840,17 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3895,7 +3899,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3907,13 +3911,13 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -3927,10 +3931,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3938,10 +3942,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3953,13 +3957,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3986,13 +3990,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4010,28 +4014,28 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4042,10 +4046,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4056,7 +4060,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4068,17 +4072,17 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4127,28 +4131,28 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4163,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4173,7 +4177,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4185,13 +4189,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4242,25 +4246,25 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4274,10 +4278,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4300,19 +4304,19 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4337,13 +4341,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4361,7 +4365,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4373,16 +4377,16 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T16:41:46+00:00</t>
+    <t>2024-12-11T17:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -225,6 +231,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -235,12 +244,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -263,6 +266,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>OMRS Practitioner</t>
+  </si>
+  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -270,9 +276,6 @@
   </si>
   <si>
     <t>Provider</t>
-  </si>
-  <si>
-    <t>OMRS Practitioner</t>
   </si>
   <si>
     <t>Practitioner.id</t>
@@ -481,6 +484,9 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t>identifier</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -491,9 +497,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -518,13 +521,13 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>retired</t>
+  </si>
+  <si>
     <t>./statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>retired</t>
   </si>
   <si>
     <t>Practitioner.name</t>
@@ -554,6 +557,9 @@
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
+    <t>Person.name</t>
+  </si>
+  <si>
     <t>XCN Components</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
   </si>
   <si>
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
-  </si>
-  <si>
-    <t>Person.name</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -585,6 +588,9 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
+    <t>providerAttribute</t>
+  </si>
+  <si>
     <t>PRT-15, STF-10, ROL-12</t>
   </si>
   <si>
@@ -592,9 +598,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>providerAttribute</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -617,6 +620,9 @@
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
   </si>
   <si>
+    <t>Person.address</t>
+  </si>
+  <si>
     <t>ORC-24, STF-11, ROL-11, PRT-14</t>
   </si>
   <si>
@@ -626,9 +632,6 @@
     <t>./Addresses</t>
   </si>
   <si>
-    <t>Person.address</t>
-  </si>
-  <si>
     <t>Practitioner.gender</t>
   </si>
   <si>
@@ -650,6 +653,9 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
+    <t>Person.gender</t>
+  </si>
+  <si>
     <t>STF-5</t>
   </si>
   <si>
@@ -657,9 +663,6 @@
   </si>
   <si>
     <t>./GenderCode</t>
-  </si>
-  <si>
-    <t>Person.gender</t>
   </si>
   <si>
     <t>Practitioner.birthDate</t>
@@ -678,6 +681,9 @@
     <t>Needed for identification.</t>
   </si>
   <si>
+    <t>Person.birthDate</t>
+  </si>
+  <si>
     <t>STF-6</t>
   </si>
   <si>
@@ -685,9 +691,6 @@
   </si>
   <si>
     <t>(not represented in ServD)</t>
-  </si>
-  <si>
-    <t>Person.birthDate</t>
   </si>
   <si>
     <t>Practitioner.photo</t>
@@ -1012,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1110,21 +1113,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1164,6 +1167,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1217,2236 +1228,2236 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.08984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="55.421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="55.421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="52.3828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>227</v>
@@ -3455,932 +3466,932 @@
         <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>274</v>
@@ -4389,10 +4400,10 @@
         <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-practitioner.xlsx
+++ b/StructureDefinition-omrs-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
